--- a/development/arena_12-12_w_vreg/teensy4p1/teensy_arena_12-12_v0p2/production/version_0p2_r1/BOM_JLCPCB_teensy_arena_12-12_v0p2_r1.xlsx
+++ b/development/arena_12-12_w_vreg/teensy4p1/teensy_arena_12-12_v0p2/production/version_0p2_r1/BOM_JLCPCB_teensy_arena_12-12_v0p2_r1.xlsx
@@ -253,7 +253,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -314,12 +314,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -382,7 +376,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -416,10 +410,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -507,12 +497,12 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.5"/>
@@ -565,7 +555,7 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="n">
@@ -582,7 +572,7 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="n">
@@ -691,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
